--- a/Country_Chapters/data/out/France_handbook_table4.xlsx
+++ b/Country_Chapters/data/out/France_handbook_table4.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Reforms" sheetId="1" r:id="rId1"/>
     <sheet name="Reforms_detailed" sheetId="2" r:id="rId2"/>
     <sheet name="Veto_Institutions" sheetId="3" r:id="rId3"/>
-    <sheet name="Cabinet_Parties" sheetId="4" r:id="rId4"/>
+    <sheet name="Parties" sheetId="4" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
   <si>
     <t>Country</t>
   </si>
@@ -35,15 +35,15 @@
     <t>Date of implementation/date of entry into force</t>
   </si>
   <si>
-    <t>Last Name of the Head of Government (Prime Minister)</t>
-  </si>
-  <si>
-    <t>Party of the Head of Government</t>
+    <t>Last Name of the Head of Government (Party)</t>
   </si>
   <si>
     <t>Parties in Cabinet</t>
   </si>
   <si>
+    <t>Party of Minister of Health (in office since)</t>
+  </si>
+  <si>
     <t>Cabinet Parties' Cumulated Seat Share in the Lower House</t>
   </si>
   <si>
@@ -65,12 +65,15 @@
     <t>Loi de finances pour 1991</t>
   </si>
   <si>
-    <t>Rocard</t>
+    <t>Rocard (PS)</t>
   </si>
   <si>
     <t>PS</t>
   </si>
   <si>
+    <t>PS (1988-06-28)</t>
+  </si>
+  <si>
     <t>lower house (Assemblee nationale), judicial (Conseil constitutionnel)</t>
   </si>
   <si>
@@ -83,10 +86,10 @@
     <t>Hospital reform act</t>
   </si>
   <si>
-    <t>Loi portant rforme hospitalire</t>
-  </si>
-  <si>
-    <t>Cresson</t>
+    <t>Loi portant réforme hospitalière</t>
+  </si>
+  <si>
+    <t>Cresson (PS)</t>
   </si>
   <si>
     <t>Regional health organization plans as tool for capacity planning for public and private hospitals. Multi-annual plans are being signed between SHI, the State, local authorities and hospitals, and the authorisations for new beds must respect these plans. </t>
@@ -98,10 +101,13 @@
     <t>Act concerning relations between healthcare professions and SHI</t>
   </si>
   <si>
-    <t>Loi relative aux relations entre les professions de sant et l'assurance maladie.</t>
-  </si>
-  <si>
-    <t>Beregovoy</t>
+    <t>Loi relative aux relations entre les professions de santé et l'assurance maladie.</t>
+  </si>
+  <si>
+    <t>Beregovoy (PS)</t>
+  </si>
+  <si>
+    <t>IND (1992-04-02)</t>
   </si>
   <si>
     <t>introduction of ceilings for growth in health care expenditure; mandatory practice guidelines ; a basis for the coding of medical procedures and of diagnoses; creation of regional unions of self-employed doctors (participation in health care system analysis, quality improvement and health promotion, with little short-term tangible effects). Collective agreements between SHI and physicians of 21 October 1993: ceilings for expenditure growth, mandatory guidelines.</t>
@@ -113,310 +119,361 @@
     <t>Constitutional Act introducing annual legislation on social security finance</t>
   </si>
   <si>
-    <t>Loi constitutionnelle instituant les lois de financement de la scurit sociale</t>
-  </si>
-  <si>
-    <t>Juppe</t>
+    <t>Loi constitutionnelle instituant les lois de financement de la sécurité sociale</t>
+  </si>
+  <si>
+    <t>Juppe (RPR)</t>
+  </si>
+  <si>
+    <t>RPR, UDF</t>
+  </si>
+  <si>
+    <t>RPR (1995-05-18)</t>
+  </si>
+  <si>
+    <t>judicial (Conseil constitutionnel), electoral (Referendum)</t>
+  </si>
+  <si>
+    <t>estimating receipts of social security bodies for the year to come and setting a growth target for total health care expenditure by statutory health insurance; the annual Act approves the government’s policy directions in health and social security</t>
+  </si>
+  <si>
+    <t>The Juppé reform leading to ordinances</t>
+  </si>
+  <si>
+    <t>Plan Juppé</t>
+  </si>
+  <si>
+    <t>Definition of pluri-annual objectives between the state and statutory health insurance; tightening of regulatory control of physicians with measures of "medically based cost-containment", including potential spending caps (caps on spending for ambulatory physicians foreseen, but finally not implemented due to resistance by the profession); creation of a national agency in charge of defining medical norms (increasing ideas and initiatives to have physicians adhere to best practice protocols, but no direct control); creation of regional hospital agencies, consituted by the state and statutory health insurance, responsible for capacity planning, defining quality objectives and allocating funds; an overall reduction of hospital beds (public and private) was wanted and anticipated by decision makers. Annual definition of overspending targets for the social security budget. Increase in tax-based contributions to statutory health insurance; restrictions on reimbursement of specialty drugs; charter for hospital patients rights. Immediate implementation of most articles. The articles introducing spending caps for ambulatory physicians were rejected in a decision of the constitutional council in Decembre 1998 in the context of the social security financing act for 1999.  </t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>Social security financing act for 2004</t>
+  </si>
+  <si>
+    <t>Loi de financement de la Sécurité sociale pour 2004</t>
+  </si>
+  <si>
+    <t>Raffarin (UMP)</t>
+  </si>
+  <si>
+    <t>UDF, UMP</t>
+  </si>
+  <si>
+    <t>Progressive introduction of DRG system for all public and private hospitals, except psychiatry. ??Start of implementation phase: October 2014, end in 2008-- start in 2004?</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>Health insurance act</t>
+  </si>
+  <si>
+    <t>Loi relative à l'assurance maladie</t>
+  </si>
+  <si>
+    <t>1) Deductible of €1 is introduced for each consultation, laboratory test and diagnostic imaging; 2) Introduction of a gatekeeping physician, negative financial incentives if gatekeeping physician is not consulted first; 3) Tax break for voluntary health insurance in low-income groups; 4) reform of governance structure, with more executive power for the director of the largest statutory health insurance scheme; 5) creation of the National Health Authority, in charge of evaluation and quality improvement. The majority of relevant decrees were emitted between October and December 2004. The gatekeeping physician scheme is implemented within the scope of the social security financing act for 2005, passing into law on 20 December 2004.</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>Social security financing act for 2008</t>
+  </si>
+  <si>
+    <t>Loi de financement de la Sécurité sociale pour 2008</t>
+  </si>
+  <si>
+    <t>Fillon (UMP)</t>
+  </si>
+  <si>
+    <t>NC, UMP</t>
+  </si>
+  <si>
+    <t>Extension of deductibles to drugs (€0.5 per package), ancillary care (€0.5 per service) and medical transportation (€2 per transport)</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>Hospital Patient Health and Territory Act</t>
+  </si>
+  <si>
+    <t>Loi Hôpital, patient, santé et territoires</t>
+  </si>
+  <si>
+    <t>MoDem, NC, UMP</t>
+  </si>
+  <si>
+    <t>The law has 135 articles regrouping four themes. 1) concerning public hospitals, it reinforces of the role of public hospital directors, now holding executive responsibilities previously held by the administrative board; 2) concerning the geographical repartition of ambulatory physicians, night and weekend access and the coordination of different professions has been reinforced; 3) concerning prevention, alcohol sales to minors have been prohibited; 4) concerning the regional organisation of the health system, former regional state and statutory health insurance institutions were merged into Regional Health Agencies. Further: New negative financial incentives in case the patient does not follow the soft-gatekeeping-scheme: the reimbursement of the statutory tariff drops from 70% to 30%. The majority of relevant decrees were emitted over the course of 2010.</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>Universal health coverage act</t>
+  </si>
+  <si>
+    <t>Loi portant création d'une couverture maladie universelle</t>
+  </si>
+  <si>
+    <t>Residency-based right to free state coverage for individuals with incomes below a certain level;  it is a social benefit provided by the state, for which a dedicated fund has been created. The scheme offers free basic (statutory) and volontary health insurance. The scheme has replaced existing benefit systems of local administrations. An expansion of coverage is likely, but reliable data is scarce.</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>Social security financing act for 2012</t>
+  </si>
+  <si>
+    <t>Loi de financement de la Sécurité sociale pour 2012</t>
+  </si>
+  <si>
+    <t>UMP</t>
+  </si>
+  <si>
+    <t>In light of excessive overbilling by some ambulatory physicians, an optional tariff sector has been introduced in which moderate overbilling (50%) of statutory tariffs is coupled to a reimbursement of the excess sum by VHI. VHI carriers must reimburse the overbilling of the optional tariff sector if they want to receive tax breaks.  Decree in March 2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>Job security act</t>
+  </si>
+  <si>
+    <t>Loi relative à la sécurisation de l'emploi</t>
+  </si>
+  <si>
+    <t>Ayrault (PS)</t>
+  </si>
+  <si>
+    <t>PS, PRG, EELV</t>
+  </si>
+  <si>
+    <t>All employers are required to offer  group VHI contracts to their employees by January 2016. Out-of-pocket payments expected to decrease as VHI coverage increases; the employer must pay 50% of VHI contributions.</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>Social security financing act for 2015</t>
+  </si>
+  <si>
+    <t>Loi de financement de la Sécurité sociale pour 2015</t>
+  </si>
+  <si>
+    <t>Valls (PS)</t>
+  </si>
+  <si>
+    <t>PS, PRG</t>
+  </si>
+  <si>
+    <t>Anticipating the generalization of third party-payment in ambulatory care planned for 2017, the present law extends third party payments for beneficiaries of a voucher plan for VHI for low-income groups, if patients follow the gatekeeping treatment pathway. </t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>Health system modernisation act</t>
+  </si>
+  <si>
+    <t>Loi de modernisation de notre système de santé</t>
+  </si>
+  <si>
+    <t>The law has 227 articles; reinforcement of prevention and health promotion; improvement of access e.g. through generalization of third party-payment in ambulatory care, using set tariffs to pay doctors  directly by SHI; reinforcement of coordinated care e.g. through extension of 'soft gatekeeping'; reinforcment of public hospital sector and regional health agencies ??When was third party payment implemented-- when could one expect a public opinion effect?</t>
+  </si>
+  <si>
+    <t>Lower House Veto Point</t>
+  </si>
+  <si>
+    <t>Cabinet Parties' Cumulated Seat Share in the Upper House</t>
+  </si>
+  <si>
+    <t>Upper House Veto Point</t>
+  </si>
+  <si>
+    <t>President Veto Point</t>
+  </si>
+  <si>
+    <t>Judicial Veto Point</t>
+  </si>
+  <si>
+    <t>Territorial Unit Veto Point</t>
+  </si>
+  <si>
+    <t>Electorate Veto Point</t>
+  </si>
+  <si>
+    <t>ctr_ccode</t>
+  </si>
+  <si>
+    <t>vto_inst_typ</t>
+  </si>
+  <si>
+    <t>vto_inst_n</t>
+  </si>
+  <si>
+    <t>vto_inst_n_en</t>
+  </si>
+  <si>
+    <t>vto_inst_sdate</t>
+  </si>
+  <si>
+    <t>vto_inst_edate</t>
+  </si>
+  <si>
+    <t>vto_pwr</t>
+  </si>
+  <si>
+    <t>vto_cmt</t>
+  </si>
+  <si>
+    <t>vto_src</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>head of state</t>
+  </si>
+  <si>
+    <t>President de la Republique</t>
+  </si>
+  <si>
+    <t>President</t>
+  </si>
+  <si>
+    <t>No, only for decrees and ordinances, defense and external affairs</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>head of government</t>
+  </si>
+  <si>
+    <t>Premier Ministre</t>
+  </si>
+  <si>
+    <t>Prime Minister</t>
+  </si>
+  <si>
+    <t>lower house</t>
+  </si>
+  <si>
+    <t>Assemblee nationale</t>
+  </si>
+  <si>
+    <t>National Assembly</t>
+  </si>
+  <si>
+    <t>conditional on 50% majority</t>
+  </si>
+  <si>
+    <t>upper house</t>
+  </si>
+  <si>
+    <t>Senat</t>
+  </si>
+  <si>
+    <t>Senate</t>
+  </si>
+  <si>
+    <t>judicial</t>
+  </si>
+  <si>
+    <t>Conseil constitutionnel</t>
+  </si>
+  <si>
+    <t>Constitutional Council</t>
+  </si>
+  <si>
+    <t>electoral</t>
+  </si>
+  <si>
+    <t>Referendum</t>
+  </si>
+  <si>
+    <t>in case president party and PM party are not the same</t>
+  </si>
+  <si>
+    <t>territorial</t>
+  </si>
+  <si>
+    <t>Region, departements, Communes</t>
+  </si>
+  <si>
+    <t>Regions, Departements and Communes</t>
+  </si>
+  <si>
+    <t>ISO-3-character Country Code</t>
+  </si>
+  <si>
+    <t>Party Abbreviation</t>
+  </si>
+  <si>
+    <t>Party Name</t>
+  </si>
+  <si>
+    <t>Party Name in English</t>
+  </si>
+  <si>
+    <t>EELV</t>
+  </si>
+  <si>
+    <t>Europe Ecologie - Les Verts</t>
+  </si>
+  <si>
+    <t>Europe Ecology - The Greens</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>Independents</t>
+  </si>
+  <si>
+    <t>MoDem</t>
+  </si>
+  <si>
+    <t>Mouvement Democrate</t>
+  </si>
+  <si>
+    <t>Democratic Movement</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>Nouveau Centre</t>
+  </si>
+  <si>
+    <t>New Center</t>
+  </si>
+  <si>
+    <t>PRG</t>
+  </si>
+  <si>
+    <t>Parti Radical de Gauche</t>
+  </si>
+  <si>
+    <t>Radical Party of the Left</t>
+  </si>
+  <si>
+    <t>Parti Socialiste</t>
+  </si>
+  <si>
+    <t>Socialist Party</t>
   </si>
   <si>
     <t>RPR</t>
   </si>
   <si>
-    <t>RPR, UDF</t>
-  </si>
-  <si>
-    <t>judicial (Conseil constitutionnel), electoral (Referendum)</t>
-  </si>
-  <si>
-    <t>estimating receipts of social security bodies for the year to come and setting a growth target for total health care expenditure by statutory health insurance; the annual Act approves the governmentÕs policy directions in health and social security</t>
-  </si>
-  <si>
-    <t>The Jupp reform leading to ordinances</t>
-  </si>
-  <si>
-    <t>Plan Jupp</t>
-  </si>
-  <si>
-    <t>Definition of pluri-annual objectives between the state and statutory health insurance; tightening of regulatory control of physicians with measures of "medically based cost-containment", including potential spending caps (caps on spending for ambulatory physicians foreseen, but finally not implemented due to resistance by the profession); creation of a national agency in charge of defining medical norms (increasing ideas and initiatives to have physicians adhere to best practice protocols, but no direct control); creation of regional hospital agencies, consituted by the state and statutory health insurance, responsible for capacity planning, defining quality objectives and allocating funds; an overall reduction of hospital beds (public and private) was wanted and anticipated by decision makers. Annual definition of overspending targets for the social security budget. Increase in tax-based contributions to statutory health insurance; restrictions on reimbursement of specialty drugs; charter for hospital patients rights. Immediate implementation of most articles. The articles introducing spending caps for ambulatory physicians were rejected in a decision of the constitutional council in Decembre 1998 in the context of the social security financing act for 1999.  </t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>Social security financing act for 2004</t>
-  </si>
-  <si>
-    <t>Loi de financement de la Scurit sociale pour 2004</t>
-  </si>
-  <si>
-    <t>Raffarin</t>
-  </si>
-  <si>
-    <t>UMP</t>
-  </si>
-  <si>
-    <t>UDF, UMP</t>
-  </si>
-  <si>
-    <t>Progressive introduction of DRG system for all public and private hospitals, except psychiatry. ??Start of implementation phase: October 2014, end in 2008-- start in 2004?</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>Health insurance act</t>
-  </si>
-  <si>
-    <t>Loi relative  l'assurance maladie</t>
-  </si>
-  <si>
-    <t>1) Deductible of Û1 is introduced for each consultation, laboratory test and diagnostic imaging; 2) Introduction of a gatekeeping physician, negative financial incentives if gatekeeping physician is not consulted first; 3) Tax break for voluntary health insurance in low-income groups; 4) reform of governance structure, with more executive power for the director of the largest statutory health insurance scheme; 5) creation of the National Health Authority, in charge of evaluation and quality improvement. The majority of relevant decrees were emitted between October and December 2004. The gatekeeping physician scheme is implemented within the scope of the social security financing act for 2005, passing into law on 20 December 2004.</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>Social security financing act for 2008</t>
-  </si>
-  <si>
-    <t>Loi de financement de la Scurit sociale pour 2008</t>
-  </si>
-  <si>
-    <t>Fillon</t>
-  </si>
-  <si>
-    <t>NC, UMP</t>
-  </si>
-  <si>
-    <t>Extension of deductibles to drugs (Û0.5 per package), ancillary care (Û0.5 per service) and medical transportation (Û2 per transport)</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>Hospital Patient Health and Territory Act</t>
-  </si>
-  <si>
-    <t>Loi Hpital, patient, sant et territoires</t>
-  </si>
-  <si>
-    <t>MoDem, NC, UMP</t>
-  </si>
-  <si>
-    <t>The law has 135 articles regrouping four themes. 1) concerning public hospitals, it reinforces of the role of public hospital directors, now holding executive responsibilities previously held by the administrative board; 2) concerning the geographical repartition of ambulatory physicians, night and weekend access and the coordination of different professions has been reinforced; 3) concerning prevention, alcohol sales to minors have been prohibited; 4) concerning the regional organisation of the health system, former regional state and statutory health insurance institutions were merged into Regional Health Agencies. Further: New negative financial incentives in case the patient does not follow the soft-gatekeeping-scheme: the reimbursement of the statutory tariff drops from 70% to 30%. The majority of relevant decrees were emitted over the course of 2010.</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>Universal health coverage act</t>
-  </si>
-  <si>
-    <t>Loi portant cration d'une couverture maladie universelle</t>
-  </si>
-  <si>
-    <t>Residency-based right to free state coverage for individuals with incomes below a certain level;  it is a social benefit provided by the state, for which a dedicated fund has been created. The scheme offers free basic (statutory) and volontary health insurance. The scheme has replaced existing benefit systems of local administrations. An expansion of coverage is likely, but reliable data is scarce.</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>Social security financing act for 2012</t>
-  </si>
-  <si>
-    <t>Loi de financement de la Scurit sociale pour 2012</t>
-  </si>
-  <si>
-    <t>In light of excessive overbilling by some ambulatory physicians, an optional tariff sector has been introduced in which moderate overbilling (50%) of statutory tariffs is coupled to a reimbursement of the excess sum by VHI. VHI carriers must reimburse the overbilling of the optional tariff sector if they want to receive tax breaks.  Decree in March 2012</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>Job security act</t>
-  </si>
-  <si>
-    <t>Loi relative  la scurisation de l'emploi</t>
-  </si>
-  <si>
-    <t>Ayrault</t>
-  </si>
-  <si>
-    <t>PS, PRG, EELV</t>
-  </si>
-  <si>
-    <t>All employers are required to offer  group VHI contracts to their employees by January 2016. Out-of-pocket payments expected to decrease as VHI coverage increases; the employer must pay 50% of VHI contributions.</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>Social security financing act for 2015</t>
-  </si>
-  <si>
-    <t>Loi de financement de la Scurit sociale pour 2015</t>
-  </si>
-  <si>
-    <t>Valls</t>
-  </si>
-  <si>
-    <t>PS, PRG</t>
-  </si>
-  <si>
-    <t>Anticipating the generalization of third party-payment in ambulatory care planned for 2017, the present law extends third party payments for beneficiaries of a voucher plan for VHI for low-income groups, if patients follow the gatekeeping treatment pathway. </t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>Health system modernisation act</t>
-  </si>
-  <si>
-    <t>Loi de modernisation de notre systme de sant</t>
-  </si>
-  <si>
-    <t>The law has 227 articles; reinforcement of prevention and health promotion; improvement of access e.g. through generalization of third party-payment in ambulatory care, using set tariffs to pay doctors  directly by SHI; reinforcement of coordinated care e.g. through extension of 'soft gatekeeping'; reinforcment of public hospital sector and regional health agencies ??When was third party payment implemented-- when could one expect a public opinion effect?</t>
-  </si>
-  <si>
-    <t>Lower House Veto Point</t>
-  </si>
-  <si>
-    <t>Cabinet Parties' Cumulated Seat Share in the Upper House</t>
-  </si>
-  <si>
-    <t>Upper House Veto Point</t>
-  </si>
-  <si>
-    <t>President Veto Point</t>
-  </si>
-  <si>
-    <t>Judicial Veto Point</t>
-  </si>
-  <si>
-    <t>Territorial Unit Veto Point</t>
-  </si>
-  <si>
-    <t>Electorate Veto Point</t>
-  </si>
-  <si>
-    <t>ctr_ccode</t>
-  </si>
-  <si>
-    <t>vto_inst_typ</t>
-  </si>
-  <si>
-    <t>vto_inst_n</t>
-  </si>
-  <si>
-    <t>vto_inst_n_en</t>
-  </si>
-  <si>
-    <t>vto_inst_sdate</t>
-  </si>
-  <si>
-    <t>vto_inst_edate</t>
-  </si>
-  <si>
-    <t>vto_pwr</t>
-  </si>
-  <si>
-    <t>vto_cmt</t>
-  </si>
-  <si>
-    <t>vto_src</t>
-  </si>
-  <si>
-    <t>FRA</t>
-  </si>
-  <si>
-    <t>head of state</t>
-  </si>
-  <si>
-    <t>President de la Republique</t>
-  </si>
-  <si>
-    <t>President</t>
-  </si>
-  <si>
-    <t>No, only for decrees and ordinances, defense and external affairs</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>head of government</t>
-  </si>
-  <si>
-    <t>Premier Ministre</t>
-  </si>
-  <si>
-    <t>Prime Minister</t>
-  </si>
-  <si>
-    <t>lower house</t>
-  </si>
-  <si>
-    <t>Assemblee nationale</t>
-  </si>
-  <si>
-    <t>National Assembly</t>
-  </si>
-  <si>
-    <t>conditional on 50% majority</t>
-  </si>
-  <si>
-    <t>upper house</t>
-  </si>
-  <si>
-    <t>Senat</t>
-  </si>
-  <si>
-    <t>Senate</t>
-  </si>
-  <si>
-    <t>judicial</t>
-  </si>
-  <si>
-    <t>Conseil constitutionnel</t>
-  </si>
-  <si>
-    <t>Constitutional Council</t>
-  </si>
-  <si>
-    <t>electoral</t>
-  </si>
-  <si>
-    <t>Referendum</t>
-  </si>
-  <si>
-    <t>in case president party and PM party are not the same</t>
-  </si>
-  <si>
-    <t>territorial</t>
-  </si>
-  <si>
-    <t>Region, departements, Communes</t>
-  </si>
-  <si>
-    <t>Regions, Departements and Communes</t>
-  </si>
-  <si>
-    <t>ISO-3-character Country Code</t>
-  </si>
-  <si>
-    <t>Party Abbreviation</t>
-  </si>
-  <si>
-    <t>Party Name</t>
-  </si>
-  <si>
-    <t>Party Name in English</t>
-  </si>
-  <si>
-    <t>Parti Socialiste</t>
-  </si>
-  <si>
-    <t>Socialist Party</t>
+    <t>Rassemblement pour la Republique</t>
+  </si>
+  <si>
+    <t>Rally for the Republic</t>
   </si>
   <si>
     <t>UDF</t>
@@ -428,52 +485,10 @@
     <t>Union for the French Democracy</t>
   </si>
   <si>
-    <t>Rassemblement pour la Republique</t>
-  </si>
-  <si>
-    <t>Rally for the Republic</t>
-  </si>
-  <si>
     <t>Union pour un Mouvement Populaire</t>
   </si>
   <si>
     <t>Union for a Popular Movement</t>
-  </si>
-  <si>
-    <t>NC</t>
-  </si>
-  <si>
-    <t>Nouveau Centre</t>
-  </si>
-  <si>
-    <t>New Center</t>
-  </si>
-  <si>
-    <t>MoDem</t>
-  </si>
-  <si>
-    <t>Mouvement Democrate</t>
-  </si>
-  <si>
-    <t>Democratic Movement</t>
-  </si>
-  <si>
-    <t>PRG</t>
-  </si>
-  <si>
-    <t>Parti Radical de Gauche</t>
-  </si>
-  <si>
-    <t>Radical Party of the Left</t>
-  </si>
-  <si>
-    <t>EELV</t>
-  </si>
-  <si>
-    <t>Europe Ecologie - Les Verts</t>
-  </si>
-  <si>
-    <t>Europe Ecology - The Greens</t>
   </si>
 </sst>
 </file>
@@ -908,16 +923,16 @@
         <v>17</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" s="2" t="n">
         <v>0.468468468468468</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -925,13 +940,13 @@
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>33450</v>
@@ -940,22 +955,20 @@
         <v>33450</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="I3" s="2"/>
       <c r="J3" s="2" t="n">
         <v>0.468468468468468</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -963,13 +976,13 @@
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>33973</v>
@@ -978,22 +991,22 @@
         <v>34263</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J4" s="2" t="n">
         <v>0.468468468468468</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -1001,13 +1014,13 @@
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>35117</v>
@@ -1016,22 +1029,22 @@
         <v>35269</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J5" s="2" t="n">
         <v>0.818024263431542</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
@@ -1039,13 +1052,13 @@
         <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E6" s="3" t="n">
         <v>35180</v>
@@ -1054,22 +1067,22 @@
         <v>35180</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J6" s="2" t="n">
         <v>0.818024263431542</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
@@ -1077,13 +1090,13 @@
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>37973</v>
@@ -1092,22 +1105,20 @@
         <v>39783</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="I7" s="2"/>
       <c r="J7" s="2" t="n">
         <v>0.682842287694974</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
@@ -1115,13 +1126,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8" s="3" t="n">
         <v>38212</v>
@@ -1130,22 +1141,20 @@
         <v>38341</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="I8" s="2"/>
       <c r="J8" s="2" t="n">
         <v>0.682842287694974</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
@@ -1153,13 +1162,13 @@
         <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E9" s="3" t="n">
         <v>39435</v>
@@ -1168,22 +1177,20 @@
         <v>39448</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>56</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="I9" s="2"/>
       <c r="J9" s="2" t="n">
         <v>0.580589254766031</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10">
@@ -1191,13 +1198,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E10" s="3" t="n">
         <v>40015</v>
@@ -1206,22 +1213,20 @@
         <v>40543</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>61</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I10" s="2"/>
       <c r="J10" s="2" t="n">
         <v>0.58578856152513</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
@@ -1229,13 +1234,13 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E11" s="3" t="n">
         <v>40021</v>
@@ -1244,22 +1249,20 @@
         <v>36526</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>61</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I11" s="2"/>
       <c r="J11" s="2" t="n">
         <v>0.58578856152513</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
@@ -1267,13 +1270,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E12" s="3" t="n">
         <v>40898</v>
@@ -1282,22 +1285,20 @@
         <v>40969</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="I12" s="2"/>
       <c r="J12" s="2" t="n">
         <v>0.542461005199307</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
@@ -1305,13 +1306,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E13" s="3" t="n">
         <v>41439</v>
@@ -1320,22 +1321,20 @@
         <v>42370</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>75</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="I13" s="2"/>
       <c r="J13" s="2" t="n">
         <v>0.535528596187175</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
@@ -1343,13 +1342,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E14" s="3" t="n">
         <v>41995</v>
@@ -1358,22 +1357,20 @@
         <v>42186</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>81</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="I14" s="2"/>
       <c r="J14" s="2" t="n">
         <v>0.506065857885615</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15">
@@ -1381,35 +1378,33 @@
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E15" s="3" t="n">
         <v>42396</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>81</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="I15" s="2"/>
       <c r="J15" s="2" t="n">
         <v>0.506065857885615</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1458,25 +1453,25 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="R1" t="s">
         <v>10</v>
@@ -1511,7 +1506,7 @@
         <v>17</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" s="2" t="n">
         <v>0.468468468468468</v>
@@ -1530,10 +1525,10 @@
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -1541,13 +1536,13 @@
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>33450</v>
@@ -1556,14 +1551,12 @@
         <v>33450</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="I3" s="2"/>
       <c r="J3" s="2" t="n">
         <v>0.468468468468468</v>
       </c>
@@ -1581,10 +1574,10 @@
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -1592,13 +1585,13 @@
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>33973</v>
@@ -1607,13 +1600,13 @@
         <v>34263</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J4" s="2" t="n">
         <v>0.468468468468468</v>
@@ -1632,10 +1625,10 @@
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -1643,13 +1636,13 @@
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>35117</v>
@@ -1658,13 +1651,13 @@
         <v>35269</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J5" s="2" t="n">
         <v>0.818024263431542</v>
@@ -1687,10 +1680,10 @@
         <v> 1</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
@@ -1698,13 +1691,13 @@
         <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E6" s="3" t="n">
         <v>35180</v>
@@ -1713,13 +1706,13 @@
         <v>35180</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J6" s="2" t="n">
         <v>0.818024263431542</v>
@@ -1742,10 +1735,10 @@
         <v> 1</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
@@ -1753,13 +1746,13 @@
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>37973</v>
@@ -1768,14 +1761,12 @@
         <v>39783</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="I7" s="2"/>
       <c r="J7" s="2" t="n">
         <v>0.682842287694974</v>
       </c>
@@ -1797,10 +1788,10 @@
         <v> 1</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
@@ -1808,13 +1799,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8" s="3" t="n">
         <v>38212</v>
@@ -1823,14 +1814,12 @@
         <v>38341</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="I8" s="2"/>
       <c r="J8" s="2" t="n">
         <v>0.682842287694974</v>
       </c>
@@ -1852,10 +1841,10 @@
         <v> 1</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
@@ -1863,13 +1852,13 @@
         <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E9" s="3" t="n">
         <v>39435</v>
@@ -1878,14 +1867,12 @@
         <v>39448</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>56</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="I9" s="2"/>
       <c r="J9" s="2" t="n">
         <v>0.580589254766031</v>
       </c>
@@ -1911,10 +1898,10 @@
         <v> 1</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10">
@@ -1922,13 +1909,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E10" s="3" t="n">
         <v>40015</v>
@@ -1937,14 +1924,12 @@
         <v>40543</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>61</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I10" s="2"/>
       <c r="J10" s="2" t="n">
         <v>0.58578856152513</v>
       </c>
@@ -1968,10 +1953,10 @@
         <v> 1</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
@@ -1979,13 +1964,13 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E11" s="3" t="n">
         <v>40021</v>
@@ -1994,14 +1979,12 @@
         <v>36526</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>61</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I11" s="2"/>
       <c r="J11" s="2" t="n">
         <v>0.58578856152513</v>
       </c>
@@ -2025,10 +2008,10 @@
         <v> 1</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
@@ -2036,13 +2019,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E12" s="3" t="n">
         <v>40898</v>
@@ -2051,14 +2034,12 @@
         <v>40969</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="I12" s="2"/>
       <c r="J12" s="2" t="n">
         <v>0.542461005199307</v>
       </c>
@@ -2082,10 +2063,10 @@
         <v> 1</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
@@ -2093,13 +2074,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E13" s="3" t="n">
         <v>41439</v>
@@ -2108,14 +2089,12 @@
         <v>42370</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>75</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="I13" s="2"/>
       <c r="J13" s="2" t="n">
         <v>0.535528596187175</v>
       </c>
@@ -2137,10 +2116,10 @@
         <v> 1</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
@@ -2148,13 +2127,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E14" s="3" t="n">
         <v>41995</v>
@@ -2163,14 +2142,12 @@
         <v>42186</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>81</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="I14" s="2"/>
       <c r="J14" s="2" t="n">
         <v>0.506065857885615</v>
       </c>
@@ -2192,10 +2169,10 @@
         <v> 1</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15">
@@ -2203,27 +2180,25 @@
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E15" s="3" t="n">
         <v>42396</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>81</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="I15" s="2"/>
       <c r="J15" s="2" t="n">
         <v>0.506065857885615</v>
       </c>
@@ -2245,10 +2220,10 @@
         <v> 1</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2267,45 +2242,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>    2</v>
@@ -2317,24 +2292,24 @@
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>    2</v>
@@ -2346,24 +2321,24 @@
         <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>    2</v>
@@ -2375,24 +2350,24 @@
         <v>0.5</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>    2</v>
@@ -2404,24 +2379,24 @@
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E6" s="3" t="n">
         <v>    2</v>
@@ -2433,24 +2408,24 @@
         <v>0</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>27332</v>
@@ -2462,24 +2437,24 @@
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E8" s="3" t="n">
         <v>34700</v>
@@ -2491,24 +2466,24 @@
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E9" s="3" t="n">
         <v>    2</v>
@@ -2520,10 +2495,10 @@
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2542,128 +2517,142 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
